--- a/main/final/reportes/descargas/Asistencia.xlsx
+++ b/main/final/reportes/descargas/Asistencia.xlsx
@@ -479,11 +479,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12509244</v>
+        <v>31184080</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EMILIANO OLIVER, PAYAN DIMAS</t>
+          <t>ELIAN MAXIMO, CARTER SILVA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -502,11 +502,11 @@
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44179</v>
+        <v>44166</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>UCABmart - Coro</t>
+          <t>UCABmart - El Cafetal</t>
         </is>
       </c>
     </row>
@@ -515,11 +515,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17249742</v>
+        <v>23346416</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BENJAM�N ALFREDO, GODINEZ CABRAL</t>
+          <t>CELESTE SOLEDAD, CHACON MACHADO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -538,11 +538,11 @@
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44179</v>
+        <v>44166</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>UCABmart - Coro</t>
+          <t>UCABmart - El Cafetal</t>
         </is>
       </c>
     </row>
@@ -551,11 +551,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33220415</v>
+        <v>26722685</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SOF�A LUNA, HINOJOSA ALBA</t>
+          <t>MARLENE DONATILA, ROSA ALMAZAN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -574,11 +574,11 @@
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44179</v>
+        <v>44166</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>UCABmart - Coro</t>
+          <t>UCABmart - El Cafetal</t>
         </is>
       </c>
     </row>
@@ -587,11 +587,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19881754</v>
+        <v>12317873</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>IMMA ABIGAIL, PHILLIPS FRIAS</t>
+          <t>FABIANO TARSICIO, SANTAMARIA JAQUEZ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -610,11 +610,11 @@
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44179</v>
+        <v>44166</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>UCABmart - Coro</t>
+          <t>UCABmart - El Cafetal</t>
         </is>
       </c>
     </row>
@@ -623,11 +623,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25185434</v>
+        <v>27811618</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ADRIANA NINA, HEREDIA CHACON</t>
+          <t>VIVALDO TARSICIO, ROSAS JACKSON</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44179</v>
+        <v>44166</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>UCABmart - Coro</t>
+          <t>UCABmart - El Cafetal</t>
         </is>
       </c>
     </row>
@@ -659,11 +659,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10623829</v>
+        <v>25213954</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ALAN LUIS, MENDIOLA AMAYA</t>
+          <t>GRACIA BERENICE, BOCANEGRA RIZO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -682,11 +682,11 @@
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44179</v>
+        <v>44166</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>UCABmart - Coro</t>
+          <t>UCABmart - El Cafetal</t>
         </is>
       </c>
     </row>
